--- a/results/ROI_greedy/dataset_05/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_05/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,67 +579,67 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I2">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9587301587301588</v>
       </c>
       <c r="O2">
-        <v>239</v>
+        <v>380</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="Q2">
-        <v>2.48073127837752</v>
+        <v>1.765783982824794</v>
       </c>
       <c r="R2">
-        <v>169.3853744324496</v>
+        <v>200.2240411163884</v>
       </c>
       <c r="S2">
-        <v>11.95</v>
+        <v>5.846153846153846</v>
       </c>
       <c r="T2">
-        <v>11.95</v>
+        <v>7.04</v>
       </c>
       <c r="U2">
-        <v>2.48073127837752</v>
+        <v>1.951608170169951</v>
       </c>
       <c r="V2">
-        <v>169.3853744324496</v>
+        <v>204.4195914915024</v>
       </c>
       <c r="W2">
-        <v>512</v>
+        <v>429</v>
       </c>
       <c r="X2">
         <v>731</v>
       </c>
       <c r="Y2">
-        <v>512</v>
+        <v>416</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>1.03125</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -659,64 +659,64 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>317</v>
+        <v>583</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>297</v>
+        <v>527</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>297</v>
+        <v>527</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>317</v>
+        <v>583</v>
       </c>
       <c r="P3">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="Q3">
-        <v>2.763169500323289</v>
+        <v>2.342835495615343</v>
       </c>
       <c r="R3">
-        <v>241.7366099935342</v>
+        <v>395.8012122455408</v>
       </c>
       <c r="S3">
-        <v>15.85</v>
+        <v>10.41071428571429</v>
       </c>
       <c r="T3">
-        <v>15.85</v>
+        <v>10.41071428571429</v>
       </c>
       <c r="U3">
-        <v>2.763169500323289</v>
+        <v>2.342835495615343</v>
       </c>
       <c r="V3">
-        <v>241.7366099935342</v>
+        <v>395.8012122455408</v>
       </c>
       <c r="W3">
-        <v>829</v>
+        <v>599</v>
       </c>
       <c r="X3">
         <v>1126</v>
       </c>
       <c r="Y3">
-        <v>829</v>
+        <v>599</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -819,64 +819,64 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I5">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="P5">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="Q5">
-        <v>2.332890442489375</v>
+        <v>1.81852971029266</v>
       </c>
       <c r="R5">
-        <v>90.67242424763813</v>
+        <v>143.8032224574156</v>
       </c>
       <c r="S5">
-        <v>10.30769230769231</v>
+        <v>6.162790697674419</v>
       </c>
       <c r="T5">
-        <v>10.30769230769231</v>
+        <v>6.162790697674419</v>
       </c>
       <c r="U5">
-        <v>2.332890442489375</v>
+        <v>1.81852971029266</v>
       </c>
       <c r="V5">
-        <v>90.67242424763813</v>
+        <v>143.8032224574156</v>
       </c>
       <c r="W5">
-        <v>443</v>
+        <v>342</v>
       </c>
       <c r="X5">
         <v>564</v>
       </c>
       <c r="Y5">
-        <v>443</v>
+        <v>342</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -899,67 +899,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>254</v>
+        <v>574</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I6">
-        <v>248</v>
+        <v>550</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>371</v>
+        <v>665</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.6684636118598383</v>
+        <v>0.8270676691729323</v>
       </c>
       <c r="O6">
-        <v>404</v>
+        <v>713</v>
       </c>
       <c r="P6">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="Q6">
-        <v>2.50490731649467</v>
+        <v>2.698280409506405</v>
       </c>
       <c r="R6">
-        <v>288.3380585556759</v>
+        <v>535.4825403436926</v>
       </c>
       <c r="S6">
-        <v>12.24242424242424</v>
+        <v>14.85416666666667</v>
       </c>
       <c r="T6">
-        <v>42.33333333333334</v>
+        <v>23.91666666666667</v>
       </c>
       <c r="U6">
-        <v>3.745574797790482</v>
+        <v>3.174575565971621</v>
       </c>
       <c r="V6">
-        <v>225.5265512132571</v>
+        <v>473.8101864166811</v>
       </c>
       <c r="W6">
-        <v>1247</v>
+        <v>945</v>
       </c>
       <c r="X6">
         <v>1495</v>
       </c>
       <c r="Y6">
-        <v>1124</v>
+        <v>830</v>
       </c>
       <c r="Z6">
-        <v>1.109430604982206</v>
+        <v>1.13855421686747</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -979,67 +979,67 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.7272727272727273</v>
+        <v>0.979381443298969</v>
       </c>
       <c r="O7">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="P7">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q7">
-        <v>1.490091154801534</v>
+        <v>1.539096423075855</v>
       </c>
       <c r="R7">
-        <v>62.31708304635091</v>
+        <v>112.4278895769797</v>
       </c>
       <c r="S7">
-        <v>4.4375</v>
+        <v>4.660377358490566</v>
       </c>
       <c r="T7">
-        <v>8.272727272727273</v>
+        <v>5.418604651162791</v>
       </c>
       <c r="U7">
-        <v>2.11296423371848</v>
+        <v>1.689838337872138</v>
       </c>
       <c r="V7">
-        <v>56.75739342909672</v>
+        <v>117.3369514714981</v>
       </c>
       <c r="W7">
-        <v>604</v>
+        <v>494</v>
       </c>
       <c r="X7">
         <v>684</v>
       </c>
       <c r="Y7">
-        <v>574</v>
+        <v>490</v>
       </c>
       <c r="Z7">
-        <v>1.052264808362369</v>
+        <v>1.008163265306123</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1059,67 +1059,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.926605504587156</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="P8">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q8">
-        <v>2.112231364502827</v>
+        <v>1.722766597741104</v>
       </c>
       <c r="R8">
-        <v>77.31652953245759</v>
+        <v>71.9308350564724</v>
       </c>
       <c r="S8">
-        <v>8.266666666666667</v>
+        <v>5.6</v>
       </c>
       <c r="T8">
-        <v>11.1</v>
+        <v>5.6</v>
       </c>
       <c r="U8">
-        <v>2.406945108318288</v>
+        <v>1.722766597741104</v>
       </c>
       <c r="V8">
-        <v>76.93054891681712</v>
+        <v>71.9308350564724</v>
       </c>
       <c r="W8">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="X8">
         <v>401</v>
       </c>
       <c r="Y8">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Z8">
-        <v>1.027397260273973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1139,67 +1139,67 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>377</v>
+        <v>689</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>369</v>
+        <v>659</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>389</v>
+        <v>678</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.9485861182519281</v>
+        <v>0.971976401179941</v>
       </c>
       <c r="O9">
-        <v>402</v>
+        <v>721</v>
       </c>
       <c r="P9">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="Q9">
-        <v>3.431502731157484</v>
+        <v>2.819439021591386</v>
       </c>
       <c r="R9">
-        <v>344.3904644949527</v>
+        <v>556.7641220715703</v>
       </c>
       <c r="S9">
-        <v>30.92307692307692</v>
+        <v>16.76744186046512</v>
       </c>
       <c r="T9">
-        <v>47.125</v>
+        <v>22.96666666666667</v>
       </c>
       <c r="U9">
-        <v>3.852803645768175</v>
+        <v>3.134043889351503</v>
       </c>
       <c r="V9">
-        <v>338.1775708338546</v>
+        <v>564.9786833194549</v>
       </c>
       <c r="W9">
-        <v>1194</v>
+        <v>904</v>
       </c>
       <c r="X9">
         <v>1563</v>
       </c>
       <c r="Y9">
-        <v>1174</v>
+        <v>885</v>
       </c>
       <c r="Z9">
-        <v>1.017035775127768</v>
+        <v>1.021468926553672</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1219,67 +1219,67 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>332</v>
+        <v>529</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="I10">
-        <v>319</v>
+        <v>491</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>327</v>
+        <v>512</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.9755351681957186</v>
+        <v>0.958984375</v>
       </c>
       <c r="O10">
-        <v>357</v>
+        <v>560</v>
       </c>
       <c r="P10">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q10">
-        <v>2.476538400117484</v>
+        <v>2.456735772821304</v>
       </c>
       <c r="R10">
-        <v>252.7038479964755</v>
+        <v>394.0766829045774</v>
       </c>
       <c r="S10">
-        <v>11.9</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="T10">
-        <v>25.53846153846154</v>
+        <v>13.92105263157895</v>
       </c>
       <c r="U10">
-        <v>3.240185611454952</v>
+        <v>2.633402272131914</v>
       </c>
       <c r="V10">
-        <v>276.8775870510856</v>
+        <v>390.9307136589873</v>
       </c>
       <c r="W10">
-        <v>831</v>
+        <v>659</v>
       </c>
       <c r="X10">
         <v>1150</v>
       </c>
       <c r="Y10">
-        <v>823</v>
+        <v>638</v>
       </c>
       <c r="Z10">
-        <v>1.009720534629405</v>
+        <v>1.032915360501567</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1299,64 +1299,64 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="H11">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="I11">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K11">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="P11">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="Q11">
-        <v>0.8780695190539572</v>
+        <v>0.4467467670814683</v>
       </c>
       <c r="R11">
-        <v>16.90177539027337</v>
+        <v>10.13303126391226</v>
       </c>
       <c r="S11">
-        <v>2.40625</v>
+        <v>1.563218390804598</v>
       </c>
       <c r="T11">
-        <v>2.40625</v>
+        <v>1.563218390804598</v>
       </c>
       <c r="U11">
-        <v>0.8780695190539572</v>
+        <v>0.4467467670814683</v>
       </c>
       <c r="V11">
-        <v>16.90177539027337</v>
+        <v>10.13303126391226</v>
       </c>
       <c r="W11">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="X11">
         <v>529</v>
       </c>
       <c r="Y11">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Z11">
         <v>1</v>
